--- a/ParseMSFCapture.xlsx
+++ b/ParseMSFCapture.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Gavin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Gavin\Projects\dcf77\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="13170" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="13170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="71">
   <si>
     <t>S3=0</t>
   </si>
@@ -133,12 +134,120 @@
   <si>
     <t>Expect</t>
   </si>
+  <si>
+    <t>S2=0</t>
+  </si>
+  <si>
+    <t>X2=0</t>
+  </si>
+  <si>
+    <t>X3=0</t>
+  </si>
+  <si>
+    <t>X1=3</t>
+  </si>
+  <si>
+    <t>X1=4</t>
+  </si>
+  <si>
+    <t>X2=3</t>
+  </si>
+  <si>
+    <t>X2=4</t>
+  </si>
+  <si>
+    <t>X1=2</t>
+  </si>
+  <si>
+    <t>X2=2</t>
+  </si>
+  <si>
+    <t>X3=4</t>
+  </si>
+  <si>
+    <t>X3=2</t>
+  </si>
+  <si>
+    <t>S4=16</t>
+  </si>
+  <si>
+    <t>X3=3</t>
+  </si>
+  <si>
+    <t>X2=1</t>
+  </si>
+  <si>
+    <t>X1=1</t>
+  </si>
+  <si>
+    <t>S4=1</t>
+  </si>
+  <si>
+    <t>X3=1</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>"0-8</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>"0-4</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>TUES</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>"0-0</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>"1-2</t>
+  </si>
+  <si>
+    <t>YearP</t>
+  </si>
+  <si>
+    <t>MDP</t>
+  </si>
+  <si>
+    <t>DWP</t>
+  </si>
+  <si>
+    <t>HRMP</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>"0-9</t>
+  </si>
+  <si>
+    <t>"1-1</t>
+  </si>
+  <si>
+    <t>"1-0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +255,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +300,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -197,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -213,6 +365,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3841,8 +4014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7042,4 +7215,6951 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AU61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4">
+        <v>1</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="4">
+        <v>1</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <f t="shared" ref="A4:A61" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15">
+        <v>2</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="15">
+        <v>2</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="15">
+        <v>2</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="M18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" s="10">
+        <v>0</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+      <c r="X18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11">
+        <v>2</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" s="10">
+        <v>0</v>
+      </c>
+      <c r="U19" s="10">
+        <v>0</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11">
+        <v>2</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10">
+        <v>15</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" s="10">
+        <v>0</v>
+      </c>
+      <c r="U20" s="10">
+        <v>0</v>
+      </c>
+      <c r="V20" s="10">
+        <v>15</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="11">
+        <v>15</v>
+      </c>
+      <c r="AK20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10">
+        <v>2</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" s="10">
+        <v>2</v>
+      </c>
+      <c r="U21" s="10">
+        <v>1</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="10">
+        <v>0</v>
+      </c>
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10">
+        <v>2</v>
+      </c>
+      <c r="J23" s="10">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" s="10">
+        <v>2</v>
+      </c>
+      <c r="U23" s="10">
+        <v>1</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" s="10">
+        <v>0</v>
+      </c>
+      <c r="U24" s="10">
+        <v>0</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
+        <v>2</v>
+      </c>
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" s="10">
+        <v>2</v>
+      </c>
+      <c r="U25" s="10">
+        <v>1</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="9">
+        <v>0</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="9">
+        <v>2</v>
+      </c>
+      <c r="J27" s="9">
+        <v>1</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" s="9">
+        <v>2</v>
+      </c>
+      <c r="U27" s="9">
+        <v>1</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="9">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="9">
+        <v>2</v>
+      </c>
+      <c r="AS27" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+      <c r="U28" s="9">
+        <v>0</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0</v>
+      </c>
+      <c r="U29" s="9">
+        <v>0</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="11">
+        <v>2</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0</v>
+      </c>
+      <c r="U30" s="9">
+        <v>0</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T31" s="13">
+        <v>0</v>
+      </c>
+      <c r="U31" s="13">
+        <v>0</v>
+      </c>
+      <c r="X31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0</v>
+      </c>
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T32" s="13">
+        <v>0</v>
+      </c>
+      <c r="U32" s="13">
+        <v>0</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="13">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
+        <v>0</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" s="13">
+        <v>0</v>
+      </c>
+      <c r="U33" s="13">
+        <v>0</v>
+      </c>
+      <c r="V33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL33" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="13">
+        <v>2</v>
+      </c>
+      <c r="J34" s="13">
+        <v>1</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" s="13">
+        <v>2</v>
+      </c>
+      <c r="U34" s="13">
+        <v>1</v>
+      </c>
+      <c r="X34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" s="13">
+        <v>0</v>
+      </c>
+      <c r="U35" s="13">
+        <v>0</v>
+      </c>
+      <c r="X35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA35" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN35" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="11">
+        <v>2</v>
+      </c>
+      <c r="AS35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="13">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" s="13">
+        <v>0</v>
+      </c>
+      <c r="U36" s="13">
+        <v>0</v>
+      </c>
+      <c r="X36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD36" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL36" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ36" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T37" s="10">
+        <v>0</v>
+      </c>
+      <c r="U37" s="10">
+        <v>0</v>
+      </c>
+      <c r="V37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X37" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK37" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="10">
+        <v>2</v>
+      </c>
+      <c r="J38" s="10">
+        <v>1</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" s="10">
+        <v>2</v>
+      </c>
+      <c r="U38" s="10">
+        <v>1</v>
+      </c>
+      <c r="V38" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="X38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN38" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT38" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T39" s="10">
+        <v>0</v>
+      </c>
+      <c r="U39" s="10">
+        <v>0</v>
+      </c>
+      <c r="X39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="14">
+        <v>0</v>
+      </c>
+      <c r="J40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P40" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S40" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" s="14">
+        <v>0</v>
+      </c>
+      <c r="U40" s="14">
+        <v>0</v>
+      </c>
+      <c r="X40" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z40" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA40" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD40" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL40" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM40" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN40" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ40" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="11">
+        <v>2</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P41" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S41" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" s="14">
+        <v>0</v>
+      </c>
+      <c r="U41" s="14">
+        <v>0</v>
+      </c>
+      <c r="V41" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="X41" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z41" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA41" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD41" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK41" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL41" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM41" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN41" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ41" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="14">
+        <v>0</v>
+      </c>
+      <c r="J42" s="14">
+        <v>0</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P42" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T42" s="14">
+        <v>0</v>
+      </c>
+      <c r="U42" s="14">
+        <v>0</v>
+      </c>
+      <c r="V42" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="X42" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z42" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA42" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD42" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK42" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL42" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM42" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN42" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ42" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="14">
+        <v>0</v>
+      </c>
+      <c r="J43" s="14">
+        <v>0</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P43" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T43" s="14">
+        <v>0</v>
+      </c>
+      <c r="U43" s="14">
+        <v>0</v>
+      </c>
+      <c r="X43" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z43" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA43" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL43" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM43" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN43" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="14">
+        <v>0</v>
+      </c>
+      <c r="J44" s="14">
+        <v>0</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O44" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P44" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T44" s="14">
+        <v>0</v>
+      </c>
+      <c r="U44" s="14">
+        <v>0</v>
+      </c>
+      <c r="X44" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z44" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA44" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL44" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM44" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN44" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="14">
+        <v>0</v>
+      </c>
+      <c r="J45" s="14">
+        <v>0</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R45" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S45" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T45" s="14">
+        <v>0</v>
+      </c>
+      <c r="U45" s="14">
+        <v>0</v>
+      </c>
+      <c r="X45" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z45" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA45" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD45" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL45" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM45" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN45" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ45" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="11">
+        <v>2</v>
+      </c>
+      <c r="AS45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="12">
+        <v>0</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T46" s="12">
+        <v>0</v>
+      </c>
+      <c r="U46" s="12">
+        <v>0</v>
+      </c>
+      <c r="X46" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA46" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL46" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN46" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <v>0</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S47" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T47" s="12">
+        <v>0</v>
+      </c>
+      <c r="U47" s="12">
+        <v>0</v>
+      </c>
+      <c r="X47" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA47" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD47" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL47" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM47" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN47" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ47" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <v>0</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q48" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R48" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S48" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T48" s="12">
+        <v>2</v>
+      </c>
+      <c r="U48" s="12">
+        <v>1</v>
+      </c>
+      <c r="V48" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X48" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y48" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD48" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK48" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL48" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN48" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ48" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR48" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT48" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="15">
+        <v>3</v>
+      </c>
+      <c r="J49" s="12">
+        <v>1</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T49" s="11">
+        <v>2</v>
+      </c>
+      <c r="U49" s="11">
+        <v>0</v>
+      </c>
+      <c r="V49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="X49" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z49" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA49" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD49" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK49" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL49" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM49" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN49" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ49" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <v>0</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R50" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T50" s="12">
+        <v>0</v>
+      </c>
+      <c r="U50" s="12">
+        <v>0</v>
+      </c>
+      <c r="X50" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z50" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL50" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM50" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP50" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="12">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
+        <v>0</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R51" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T51" s="12">
+        <v>0</v>
+      </c>
+      <c r="U51" s="12">
+        <v>0</v>
+      </c>
+      <c r="X51" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y51" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z51" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA51" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL51" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN51" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR51" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS51" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="12">
+        <v>2</v>
+      </c>
+      <c r="J52" s="12">
+        <v>1</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O52" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R52" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S52" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T52" s="12">
+        <v>0</v>
+      </c>
+      <c r="U52" s="12">
+        <v>0</v>
+      </c>
+      <c r="X52" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y52" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA52" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD52" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL52" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM52" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN52" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ52" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="11">
+        <v>2</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3">
+        <v>2</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T54" s="3">
+        <v>2</v>
+      </c>
+      <c r="U54" s="3">
+        <v>1</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR54" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS54" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3">
+        <v>2</v>
+      </c>
+      <c r="J55" s="3">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T55" s="3">
+        <v>2</v>
+      </c>
+      <c r="U55" s="3">
+        <v>1</v>
+      </c>
+      <c r="V55" s="3">
+        <v>0</v>
+      </c>
+      <c r="W55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF55" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR55" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS55" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU55" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3">
+        <v>3</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T56" s="3">
+        <v>3</v>
+      </c>
+      <c r="U56" s="3">
+        <v>1</v>
+      </c>
+      <c r="V56" s="3">
+        <v>1</v>
+      </c>
+      <c r="W56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF56" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG56" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR56" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS56" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT56" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU56" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T57" s="3">
+        <v>2</v>
+      </c>
+      <c r="U57" s="3">
+        <v>1</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR57" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T58" s="3">
+        <v>2</v>
+      </c>
+      <c r="U58" s="3">
+        <v>1</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP58" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR58" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS58" s="11">
+        <v>1</v>
+      </c>
+      <c r="AT58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T59" s="3">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3">
+        <v>1</v>
+      </c>
+      <c r="V59" s="3">
+        <v>1</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN59" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR59" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU59" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" s="3">
+        <v>5</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T61" s="3">
+        <v>5</v>
+      </c>
+      <c r="X61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>5</v>
+      </c>
+      <c r="AK61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ61" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>